--- a/upload files/Tracks.xlsx
+++ b/upload files/Tracks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\Active Excel FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4F3E75F9-C88B-4E90-A321-F0BDC9C625B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9FDDDEB-BB0D-4F3B-B22C-877719F723C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B90D8-D849-3D4E-9D42-D2E32684D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="CCEMT" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="159">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -414,13 +415,112 @@
   </si>
   <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>Chatigny</t>
+  </si>
+  <si>
+    <t>Deptula</t>
+  </si>
+  <si>
+    <t>DiCredico</t>
+  </si>
+  <si>
+    <t>Feddersen</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Hardiman</t>
+  </si>
+  <si>
+    <t>Krant</t>
+  </si>
+  <si>
+    <t>Laranjeira</t>
+  </si>
+  <si>
+    <t>Lund</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Pimentel</t>
+  </si>
+  <si>
+    <t>Prins</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Rowell</t>
+  </si>
+  <si>
+    <t>Tonelli</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +535,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +579,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -491,11 +609,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +767,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,33 +1162,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53695F79-F0CB-49F9-A1E9-F0A0A3F6EDBE}">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
-    <col min="3" max="7" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="6.85546875" style="2" customWidth="1"/>
-    <col min="10" max="14" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" style="2" customWidth="1"/>
-    <col min="17" max="21" width="6.85546875" style="3" customWidth="1"/>
-    <col min="22" max="23" width="6.85546875" style="2" customWidth="1"/>
-    <col min="24" max="28" width="6.85546875" style="3" customWidth="1"/>
-    <col min="29" max="30" width="6.85546875" style="2" customWidth="1"/>
-    <col min="31" max="35" width="6.85546875" style="3" customWidth="1"/>
-    <col min="36" max="37" width="6.85546875" style="2" customWidth="1"/>
-    <col min="38" max="42" width="6.85546875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="6.85546875" style="2" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="6.83203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" style="2" customWidth="1"/>
+    <col min="10" max="14" width="6.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16" width="6.83203125" style="2" customWidth="1"/>
+    <col min="17" max="21" width="6.83203125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="6.83203125" style="2" customWidth="1"/>
+    <col min="24" max="28" width="6.83203125" style="3" customWidth="1"/>
+    <col min="29" max="30" width="6.83203125" style="2" customWidth="1"/>
+    <col min="31" max="35" width="6.83203125" style="3" customWidth="1"/>
+    <col min="36" max="37" width="6.83203125" style="2" customWidth="1"/>
+    <col min="38" max="42" width="6.83203125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="6.83203125" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1072,7 +1378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1154,7 +1460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1213,7 +1519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1272,7 +1578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1331,17 +1637,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1459,7 +1765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1518,7 +1824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1577,7 +1883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1636,7 +1942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1695,7 +2001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1712,7 +2018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1771,7 +2077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1830,7 +2136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1889,7 +2195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1948,7 +2254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2007,7 +2313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2066,7 +2372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2125,7 +2431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2198,7 +2504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2257,7 +2563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2280,7 +2586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2339,7 +2645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2371,7 +2677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2430,7 +2736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2489,7 +2795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2548,7 +2854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2607,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2666,7 +2972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2725,7 +3031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +3090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2843,12 +3149,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2907,7 +3213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2966,7 +3272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +3295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3048,7 +3354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3107,12 +3413,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3171,7 +3477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3230,7 +3536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3289,7 +3595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3348,7 +3654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3407,7 +3713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3424,7 +3730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3483,12 +3789,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -3547,12 +3853,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3611,7 +3917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3634,7 +3940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3648,7 +3954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3707,7 +4013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3766,7 +4072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3825,7 +4131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3848,7 +4154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3907,7 +4213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3921,7 +4227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +4286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -4039,7 +4345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -4098,7 +4404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -4157,7 +4463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -4216,7 +4522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -4275,12 +4581,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -4339,7 +4645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -4356,7 +4662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -4415,7 +4721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -4474,7 +4780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -4497,7 +4803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -4556,7 +4862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -4573,7 +4879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -4596,7 +4902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -4637,7 +4943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -4696,7 +5002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -4755,7 +5061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -4813,6 +5119,1118 @@
       <c r="AN82" s="3" t="s">
         <v>45</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47ABB5-6B6D-0047-BC0D-8743FEF36D8D}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="17"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="17"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="W18" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4829,14 +6247,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -5019,14 +6429,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFFDED6-61B9-426A-8C57-4EB4CD0F4E95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFFDED6-61B9-426A-8C57-4EB4CD0F4E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2462D-4DC3-4D8C-9537-7DD0B7423608}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEFF9ED-23D7-4EA5-99B7-575064A65984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEFF9ED-23D7-4EA5-99B7-575064A65984}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2462D-4DC3-4D8C-9537-7DD0B7423608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload files/Tracks.xlsx
+++ b/upload files/Tracks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B90D8-D849-3D4E-9D42-D2E32684D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB37A9C-7E5B-DD4D-AB12-DB4DCD9D8ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>Noland</t>
   </si>
   <si>
-    <t>Pellegrine</t>
-  </si>
-  <si>
     <t>Phillips K.</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>O’Donnell</t>
   </si>
   <si>
-    <t>Odle</t>
-  </si>
-  <si>
     <t>Pepin</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   </si>
   <si>
     <t>MG</t>
+  </si>
+  <si>
+    <t>Payton</t>
+  </si>
+  <si>
+    <t>Saraceno</t>
   </si>
 </sst>
 </file>
@@ -1162,11 +1162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53695F79-F0CB-49F9-A1E9-F0A0A3F6EDBE}">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>44</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>44</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>44</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>45</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>44</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
@@ -3151,12 +3151,12 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>45</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>45</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>44</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>45</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>44</v>
@@ -3415,12 +3415,12 @@
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>45</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>44</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>44</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>44</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>44</v>
@@ -3791,12 +3791,12 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>44</v>
@@ -3855,12 +3855,12 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>44</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>44</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>45</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>44</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>44</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>44</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>44</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>44</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>45</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>44</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>44</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>44</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>45</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>45</v>
@@ -4583,12 +4583,12 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>44</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>44</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>44</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>44</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>44</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>44</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>44</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>44</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>44</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>45</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>44</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>44</v>
@@ -5129,7 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47ABB5-6B6D-0047-BC0D-8743FEF36D8D}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -5137,154 +5137,154 @@
   <sheetData>
     <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="P1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="W1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="16"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="13"/>
       <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -5317,155 +5317,155 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="14"/>
       <c r="W4" s="15"/>
       <c r="X4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U5" s="13"/>
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
       <c r="X5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC5" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="16"/>
@@ -5473,761 +5473,761 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
       <c r="X6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AC6" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="16"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB7" s="13"/>
       <c r="AC7" s="17"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="16"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T8" s="13"/>
       <c r="U8" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB8" s="13"/>
       <c r="AC8" s="17"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="16"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB9" s="13"/>
       <c r="AC9" s="17"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="14"/>
       <c r="W10" s="15"/>
       <c r="X10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC10" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="16"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="17"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="14"/>
       <c r="W12" s="15"/>
       <c r="X12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U14" s="13"/>
       <c r="V14" s="14"/>
       <c r="W14" s="15"/>
       <c r="X14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
       <c r="W15" s="15"/>
       <c r="X15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="16"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB16" s="13"/>
       <c r="AC16" s="17"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="16"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W17" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AB17" s="13"/>
       <c r="AC17" s="17"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="22"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W18" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB18" s="19"/>
       <c r="AC18" s="23"/>
@@ -6247,6 +6247,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -6429,14 +6437,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFFDED6-61B9-426A-8C57-4EB4CD0F4E95}">
   <ds:schemaRefs>
@@ -6446,6 +6446,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2462D-4DC3-4D8C-9537-7DD0B7423608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEFF9ED-23D7-4EA5-99B7-575064A65984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6462,14 +6472,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2462D-4DC3-4D8C-9537-7DD0B7423608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>